--- a/cpp/oj.01class.cn/29085/29085.xlsx
+++ b/cpp/oj.01class.cn/29085/29085.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xingrui/CODE/cpp/oj.01class.cn/29085/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14E394-D4E6-2046-AEFE-48F3F7C0494D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E977514E-E8C1-084E-ACC0-C2DA34E6DD8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="460" windowWidth="21260" windowHeight="21940" xr2:uid="{6F55B78F-B3F6-E14D-8B79-E8A6E469AD48}"/>
+    <workbookView xWindow="13940" yWindow="460" windowWidth="21900" windowHeight="21940" xr2:uid="{6F55B78F-B3F6-E14D-8B79-E8A6E469AD48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>total money</t>
   </si>
   <si>
     <t>daily price</t>
+  </si>
+  <si>
+    <t>daily prices</t>
+  </si>
+  <si>
+    <t>10,20,25</t>
+  </si>
+  <si>
+    <t>15,17,13</t>
+  </si>
+  <si>
+    <t>15,25,16</t>
   </si>
 </sst>
 </file>
@@ -397,7 +409,7 @@
   <dimension ref="A2:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="A11:I14"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -409,65 +421,20 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>11</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-      <c r="O2">
-        <v>13</v>
-      </c>
-      <c r="P2">
-        <v>14</v>
-      </c>
-      <c r="Q2">
-        <v>15</v>
-      </c>
-      <c r="R2">
-        <v>16</v>
-      </c>
-      <c r="S2">
-        <v>17</v>
-      </c>
-      <c r="T2">
-        <v>18</v>
-      </c>
-      <c r="U2">
-        <v>19</v>
-      </c>
-      <c r="V2">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -480,61 +447,19 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
         <v>0</v>
       </c>
     </row>
@@ -548,62 +473,8 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>5</v>
-      </c>
-      <c r="S4">
-        <v>5</v>
-      </c>
-      <c r="T4">
-        <v>5</v>
-      </c>
-      <c r="U4">
-        <v>5</v>
-      </c>
-      <c r="V4">
-        <v>5</v>
+      <c r="F4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -616,62 +487,8 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -684,63 +501,6 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>6</v>
-      </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
-      </c>
-      <c r="Q6">
-        <v>6</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
-      </c>
-      <c r="S6">
-        <v>6</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <v>6</v>
-      </c>
-      <c r="V6">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -752,63 +512,6 @@
       <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>30</v>
-      </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>30</v>
-      </c>
-      <c r="N7">
-        <v>30</v>
-      </c>
-      <c r="O7">
-        <v>30</v>
-      </c>
-      <c r="P7">
-        <v>30</v>
-      </c>
-      <c r="Q7">
-        <v>30</v>
-      </c>
-      <c r="R7">
-        <v>30</v>
-      </c>
-      <c r="S7">
-        <v>30</v>
-      </c>
-      <c r="T7">
-        <v>30</v>
-      </c>
-      <c r="U7">
-        <v>30</v>
-      </c>
-      <c r="V7">
-        <v>30</v>
-      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -820,63 +523,25 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -891,22 +556,84 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E13" s="1"/>
+      <c r="A12">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="A14">
+        <v>119</v>
+      </c>
+      <c r="B14">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
